--- a/public/file/default_template.xlsx
+++ b/public/file/default_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sekolah\public\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AD32FC-92F3-4594-B164-9F16388EB342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A01FDA-8755-4C51-A2A3-BBE25A5865E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="3090" windowWidth="20550" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="3420" windowWidth="20550" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,21 +537,282 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="1"/>
-      <c r="L3" s="2"/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>12345</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="1"/>
-      <c r="L4" s="2"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>12345</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>12345</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>12345</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>12345</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>12345</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>12345</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{71AB8E1B-8261-4DF5-A01E-F1A9A6D16680}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{77489C43-BC92-4D3E-B561-33AD4D3C185E}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{D4239798-A406-4DD3-BFE3-AA107AEC4413}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{D52AF6DA-0FB5-4B04-8A53-5B935DC5C931}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{8149CE5D-BE6D-4523-90F3-11D7B0AECFD4}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{157A3F2B-A68A-4A8C-BC31-D260AC11BC95}"/>
+    <hyperlink ref="J9" r:id="rId7" xr:uid="{2CFB3CA7-734B-45F0-A576-5C0BCBB12FB4}"/>
+    <hyperlink ref="J8" r:id="rId8" xr:uid="{A40A867E-A433-42C3-BFB8-2864C159B08E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/file/default_template.xlsx
+++ b/public/file/default_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinguin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A01FDA-8755-4C51-A2A3-BBE25A5865E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A03459-0141-4F9A-ADFA-BDF7686D0D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="3420" windowWidth="20550" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="4110" windowWidth="20550" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="20">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>username</t>
   </si>
@@ -71,9 +68,6 @@
     <t>081290669170</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>kelas</t>
   </si>
   <si>
@@ -86,10 +80,19 @@
     <t>30-02-1998</t>
   </si>
   <si>
-    <t>ahmed</t>
-  </si>
-  <si>
-    <t>ahmedpedro</t>
+    <t>mamad</t>
+  </si>
+  <si>
+    <t>XI IPA</t>
+  </si>
+  <si>
+    <t>alkatiri</t>
+  </si>
+  <si>
+    <t>mamadalkatiri</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -440,38 +443,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="8" max="9" width="17.140625" customWidth="1"/>
-    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="7" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -480,10 +483,10 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -494,325 +497,112 @@
       <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>12345</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>12345</v>
+        <v>123457</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>12345</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>12345</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>12345</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>12345</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>12345</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>12345</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{71AB8E1B-8261-4DF5-A01E-F1A9A6D16680}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{77489C43-BC92-4D3E-B561-33AD4D3C185E}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{D4239798-A406-4DD3-BFE3-AA107AEC4413}"/>
-    <hyperlink ref="J5" r:id="rId4" xr:uid="{D52AF6DA-0FB5-4B04-8A53-5B935DC5C931}"/>
-    <hyperlink ref="J6" r:id="rId5" xr:uid="{8149CE5D-BE6D-4523-90F3-11D7B0AECFD4}"/>
-    <hyperlink ref="J7" r:id="rId6" xr:uid="{157A3F2B-A68A-4A8C-BC31-D260AC11BC95}"/>
-    <hyperlink ref="J9" r:id="rId7" xr:uid="{2CFB3CA7-734B-45F0-A576-5C0BCBB12FB4}"/>
-    <hyperlink ref="J8" r:id="rId8" xr:uid="{A40A867E-A433-42C3-BFB8-2864C159B08E}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{04211B9C-20B1-48A7-BAAC-B540FD840C5E}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{A1F0FE64-52C1-4CE5-9486-9D8648D60716}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
